--- a/114_tkuim_final_project/PyMoney_Export.xlsx
+++ b/114_tkuim_final_project/PyMoney_Export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,18 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>提款</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>123</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -504,23 +508,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>捷運</t>
+          <t>筆電</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>80000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2004-10-17</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,20 +538,470 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>貓咪</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>貓罐罐</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>健身房月費</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>捷運儲值</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>123</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>買飲料</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LinePay</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6月房租</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>看電影(沙丘2)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>700</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5月薪資</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>中樂透小獎</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>transfer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>轉帳給媽媽</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>買新滑鼠</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>同事聚餐</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>600</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LinePay</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Netflix訂閱</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>390</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>加油</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>150</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>全聯採購</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>850</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>expense</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5月房租</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4月薪資</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bank</t>
         </is>
       </c>
     </row>
